--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaxis\tagCalc\tagModules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB050B-7A96-49FD-AE6F-4ACCB796AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCE2EF-7A8F-426A-A0DE-864AB70F0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Agencia</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>u/p</t>
-  </si>
-  <si>
-    <t>Microconvertion</t>
   </si>
 </sst>
 </file>
@@ -690,22 +687,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,18 +697,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,1050 +1543,1050 @@
   </cols>
   <sheetData>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
     </row>
     <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
     </row>
     <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
     </row>
     <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="23"/>
     </row>
     <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
     </row>
     <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
     </row>
     <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
     </row>
     <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
     </row>
     <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
     </row>
     <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
     </row>
     <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
     </row>
     <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
     </row>
     <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="23"/>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
     </row>
     <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="23"/>
     </row>
     <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
+      <c r="B134" s="23"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="23"/>
     </row>
     <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
     </row>
     <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2652,7 +2649,7 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -2669,7 +2666,7 @@
       </c>
     </row>
     <row r="4" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2686,7 +2683,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -2695,7 +2692,7 @@
       <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="37" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4369,8 +4366,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A11:AMH303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4476,57 +4473,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4544,7 +4541,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -4561,7 +4558,7 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -4576,7 +4573,7 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4"/>
@@ -4593,7 +4590,7 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4608,8 +4605,8 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
-        <v>51</v>
+      <c r="B35" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -4625,7 +4622,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4910,6 +4907,11 @@
     <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J28:K28"/>
@@ -4919,11 +4921,6 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G36" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
@@ -5054,57 +5051,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5122,7 +5119,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -5139,7 +5136,7 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5154,7 +5151,7 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5169,7 +5166,7 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4"/>
@@ -5186,7 +5183,7 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -5201,7 +5198,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5216,7 +5213,7 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5231,7 +5228,7 @@
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5246,7 +5243,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4"/>
@@ -5263,7 +5260,7 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5278,7 +5275,7 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5293,7 +5290,7 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5308,7 +5305,7 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5737,57 +5734,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5805,276 +5802,276 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
     </row>
     <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
     </row>
     <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
     </row>
     <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
     </row>
     <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
     </row>
     <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="34"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
     </row>
     <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
     </row>
     <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
     </row>
     <row r="44" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
     </row>
     <row r="45" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
     </row>
     <row r="46" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
     </row>
     <row r="47" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
     </row>
     <row r="48" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="34"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
     </row>
     <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="8"/>
@@ -6347,6 +6344,17 @@
     <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B31:B48"/>
+    <mergeCell ref="C31:C48"/>
+    <mergeCell ref="D31:D48"/>
+    <mergeCell ref="E31:E48"/>
+    <mergeCell ref="G31:G48"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="L31:L48"/>
     <mergeCell ref="M31:M48"/>
     <mergeCell ref="N31:N48"/>
@@ -6359,17 +6367,6 @@
     <mergeCell ref="J31:J48"/>
     <mergeCell ref="K31:K48"/>
     <mergeCell ref="H31:H48"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="D31:D48"/>
-    <mergeCell ref="E31:E48"/>
-    <mergeCell ref="G31:G48"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C48" xr:uid="{313610C3-1725-4BDE-B2FF-49FB559662B0}">

--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB050B-7A96-49FD-AE6F-4ACCB796AABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D749A92-2A2B-462B-8733-5EC7F6F8E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Tagging Request " sheetId="1" r:id="rId1"/>
-    <sheet name="Listas" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="Listas" sheetId="8" r:id="rId2"/>
     <sheet name="Tagging Request" sheetId="2" r:id="rId3"/>
     <sheet name="Funnel" sheetId="7" r:id="rId4"/>
     <sheet name="Sections" sheetId="4" r:id="rId5"/>
@@ -697,15 +697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -715,18 +706,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2605,7 +2605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C476D17-5786-4464-A0F3-8A2E9CCCA677}">
   <dimension ref="A1:CD559"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4369,7 +4369,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A11:AMH303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -4476,57 +4476,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4544,7 +4544,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -4561,7 +4561,7 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -4576,7 +4576,7 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="4"/>
@@ -4593,7 +4593,7 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4608,7 +4608,7 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="4"/>
@@ -4625,7 +4625,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4910,6 +4910,11 @@
     <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J28:K28"/>
@@ -4919,11 +4924,6 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G36" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
@@ -5054,57 +5054,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5122,7 +5122,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -5139,7 +5139,7 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5169,7 +5169,7 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4"/>
@@ -5186,7 +5186,7 @@
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -5201,7 +5201,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5216,7 +5216,7 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5231,7 +5231,7 @@
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5246,7 +5246,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4"/>
@@ -5263,7 +5263,7 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5278,7 +5278,7 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5293,7 +5293,7 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="32"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5308,7 +5308,7 @@
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="32"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5737,57 +5737,57 @@
     </row>
     <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="31"/>
+      <c r="K28" s="28"/>
     </row>
     <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="30"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5805,276 +5805,276 @@
       </c>
     </row>
     <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
     </row>
     <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="34"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
     </row>
     <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
     </row>
     <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
     </row>
     <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
     </row>
     <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="34"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
     </row>
     <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
     </row>
     <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
     </row>
     <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
     </row>
     <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="34"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="34"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
     </row>
     <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
     </row>
     <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
     </row>
     <row r="44" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="34"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
     </row>
     <row r="45" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
     </row>
     <row r="46" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
     </row>
     <row r="47" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
     </row>
     <row r="48" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="34"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
     </row>
     <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="8"/>
@@ -6347,6 +6347,17 @@
     <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B31:B48"/>
+    <mergeCell ref="C31:C48"/>
+    <mergeCell ref="D31:D48"/>
+    <mergeCell ref="E31:E48"/>
+    <mergeCell ref="G31:G48"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="L31:L48"/>
     <mergeCell ref="M31:M48"/>
     <mergeCell ref="N31:N48"/>
@@ -6359,17 +6370,6 @@
     <mergeCell ref="J31:J48"/>
     <mergeCell ref="K31:K48"/>
     <mergeCell ref="H31:H48"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="D31:D48"/>
-    <mergeCell ref="E31:E48"/>
-    <mergeCell ref="G31:G48"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C48" xr:uid="{313610C3-1725-4BDE-B2FF-49FB559662B0}">

--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D749A92-2A2B-462B-8733-5EC7F6F8E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BD197-E9A7-4E19-9246-99340D203438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Tagging Request " sheetId="1" r:id="rId1"/>
-    <sheet name="Listas" sheetId="8" r:id="rId2"/>
+    <sheet name="Listas" sheetId="8" state="hidden" r:id="rId2"/>
     <sheet name="Tagging Request" sheetId="2" r:id="rId3"/>
     <sheet name="Funnel" sheetId="7" r:id="rId4"/>
     <sheet name="Sections" sheetId="4" r:id="rId5"/>
@@ -26,10 +26,10 @@
     <definedName name="SI">'Tagging Request'!$I$31</definedName>
     <definedName name="SI_NO">Listas!$D$3:$D$5</definedName>
     <definedName name="Taboola">Listas!$E$3:$E$4</definedName>
-    <definedName name="Triggers">Listas!$C$3:$C$5</definedName>
+    <definedName name="Triggers">Listas!$C$3:$C$6</definedName>
     <definedName name="Última_interacción" localSheetId="3">Funnel!$C$19</definedName>
     <definedName name="Última_interacción">'Tagging Request'!$C$19</definedName>
-    <definedName name="URL">Listas!$F$3:$F$4</definedName>
+    <definedName name="URL">Listas!$F$3:$F$8</definedName>
     <definedName name="VARIABLES" comment="Custom variables to get valuable information.">Listas!$B$3:$B$6</definedName>
     <definedName name="Ventas" localSheetId="3">Funnel!$C$17</definedName>
     <definedName name="Ventas">'Tagging Request'!$C$17</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Agencia</t>
   </si>
@@ -326,7 +326,45 @@
     <t>u/p</t>
   </si>
   <si>
-    <t>Microconvertion</t>
+    <t>Pixel [M] Insights
+GA4 Events</t>
+  </si>
+  <si>
+    <t>Xandr - Google Ads</t>
+  </si>
+  <si>
+    <t>DV360 - Facebook Events</t>
+  </si>
+  <si>
+    <t>Advocacy</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Xandr - ADS</t>
+  </si>
+  <si>
+    <t>Pixel [M] Insights
+Facebook</t>
+  </si>
+  <si>
+    <t>DV360 - GA4</t>
+  </si>
+  <si>
+    <t>Taboola - Twitter - TikTok</t>
   </si>
 </sst>
 </file>
@@ -372,7 +410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +447,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -630,11 +680,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -688,14 +788,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,13 +835,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,8 +950,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2089080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,8 +1216,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1717560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1138,8 +1264,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1717560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,8 +1312,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1546110</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1522,11 +1648,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A18:AMJ136"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -1545,1051 +1671,1051 @@
     <col min="17" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+    <row r="18" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+    <row r="20" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+    <row r="21" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+    <row r="22" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+    <row r="23" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+    <row r="24" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+    <row r="25" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+    <row r="26" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+    <row r="27" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+    <row r="28" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+    <row r="29" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+    <row r="30" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+    <row r="31" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+    <row r="32" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+    <row r="33" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+    <row r="34" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+    <row r="35" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+    <row r="36" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+    <row r="37" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+    <row r="38" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+    <row r="39" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+    <row r="40" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+    <row r="41" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+    <row r="42" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+    <row r="43" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+    <row r="44" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+    <row r="45" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+    <row r="46" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+    <row r="47" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+    <row r="48" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+    <row r="49" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+    <row r="50" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+    <row r="51" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+    <row r="52" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+    <row r="53" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+    <row r="54" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+    <row r="55" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+    <row r="56" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+    <row r="57" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+    <row r="58" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+    <row r="59" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+    <row r="60" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+    <row r="61" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
+    <row r="62" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+    <row r="63" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+    <row r="64" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+    <row r="65" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+    <row r="66" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+    <row r="67" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+    <row r="68" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+    <row r="69" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+    <row r="70" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+    <row r="71" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+    <row r="72" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+    <row r="73" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
+    <row r="74" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+    <row r="75" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+    <row r="76" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+    <row r="77" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+    <row r="78" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+    <row r="79" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+    <row r="80" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+    <row r="81" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+    <row r="82" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+    <row r="83" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+    <row r="84" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+    <row r="85" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+    <row r="86" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+    <row r="87" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+    <row r="88" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+    <row r="89" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
+    <row r="90" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+    <row r="91" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+    <row r="92" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+    <row r="93" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+    <row r="94" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+    <row r="95" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+    <row r="96" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+    <row r="97" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+    <row r="98" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
+    <row r="99" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+    <row r="100" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
+    <row r="101" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+    <row r="102" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+    <row r="103" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+    <row r="104" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+    <row r="105" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+    <row r="106" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+    <row r="107" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
+    <row r="108" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
+    <row r="109" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+    <row r="110" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+    <row r="111" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+    <row r="112" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-    </row>
-    <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
-    </row>
-    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-    </row>
-    <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-    </row>
-    <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-    </row>
-    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-    </row>
-    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-    </row>
-    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-    </row>
-    <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-    </row>
-    <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-    </row>
-    <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-    </row>
-    <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-    </row>
-    <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-    </row>
-    <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-    </row>
-    <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="25"/>
-    </row>
-    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-    </row>
-    <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-    </row>
-    <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-    </row>
-    <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
-    </row>
-    <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-    </row>
-    <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
-    </row>
-    <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-    </row>
-    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-    </row>
-    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
+    <row r="113" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+    </row>
+    <row r="114" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+    </row>
+    <row r="115" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+    </row>
+    <row r="117" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+    </row>
+    <row r="119" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+    </row>
+    <row r="120" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+    </row>
+    <row r="122" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+    </row>
+    <row r="123" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+    </row>
+    <row r="125" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+    </row>
+    <row r="126" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+    </row>
+    <row r="127" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+    </row>
+    <row r="128" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+    </row>
+    <row r="129" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+    </row>
+    <row r="131" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+    </row>
+    <row r="132" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+    </row>
+    <row r="133" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+    </row>
+    <row r="134" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+    </row>
+    <row r="135" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+    </row>
+    <row r="136" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2605,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C476D17-5786-4464-A0F3-8A2E9CCCA677}">
   <dimension ref="A1:CD559"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2614,20 +2740,21 @@
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="21" max="82" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -2652,13 +2779,13 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -2669,10 +2796,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2681,29 +2808,44 @@
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="F5" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>38</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
@@ -4367,21 +4509,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A11:AMH303"/>
+  <dimension ref="A1:AMH356"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="31" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="49.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="31" customWidth="1"/>
     <col min="8" max="9" width="30.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
@@ -4391,142 +4533,242 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="28" t="s">
+      <c r="D23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="27"/>
+      <c r="I29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="26"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4543,378 +4785,3700 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="37"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+    </row>
+    <row r="57" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+    </row>
+    <row r="59" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+    </row>
+    <row r="60" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+    </row>
+    <row r="63" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+    </row>
+    <row r="64" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+    </row>
+    <row r="65" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+    </row>
+    <row r="66" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+    </row>
+    <row r="67" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+    </row>
+    <row r="69" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+    </row>
+    <row r="70" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+    </row>
+    <row r="73" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+    </row>
+    <row r="75" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+    </row>
+    <row r="76" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+    </row>
+    <row r="77" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+    </row>
+    <row r="78" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+    </row>
+    <row r="80" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+    </row>
+    <row r="89" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+    </row>
+    <row r="91" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+    </row>
+    <row r="92" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+    </row>
+    <row r="93" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+    </row>
+    <row r="94" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+    </row>
+    <row r="95" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+    </row>
+    <row r="97" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+    </row>
+    <row r="99" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+    </row>
+    <row r="100" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+    </row>
+    <row r="101" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+    </row>
+    <row r="102" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+    </row>
+    <row r="103" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+    </row>
+    <row r="104" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+    </row>
+    <row r="105" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+    </row>
+    <row r="106" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+    </row>
+    <row r="107" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+    </row>
+    <row r="108" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+    </row>
+    <row r="109" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+    </row>
+    <row r="110" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
+    </row>
+    <row r="111" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+    </row>
+    <row r="112" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+    </row>
+    <row r="113" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+    </row>
+    <row r="116" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+    </row>
+    <row r="117" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+    </row>
+    <row r="118" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+    </row>
+    <row r="119" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+    </row>
+    <row r="120" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+    </row>
+    <row r="121" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="30"/>
+    </row>
+    <row r="122" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+    </row>
+    <row r="123" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+    </row>
+    <row r="124" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+    </row>
+    <row r="125" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="30"/>
+    </row>
+    <row r="126" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="30"/>
+    </row>
+    <row r="127" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="30"/>
+    </row>
+    <row r="128" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+    </row>
+    <row r="129" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="30"/>
+    </row>
+    <row r="130" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+    </row>
+    <row r="131" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="30"/>
+    </row>
+    <row r="132" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+    </row>
+    <row r="133" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+    </row>
+    <row r="134" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+    </row>
+    <row r="135" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+    </row>
+    <row r="136" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+    </row>
+    <row r="137" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+    </row>
+    <row r="138" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+    </row>
+    <row r="139" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+    </row>
+    <row r="140" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+    </row>
+    <row r="141" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+    </row>
+    <row r="142" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+    </row>
+    <row r="143" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+    </row>
+    <row r="144" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+    </row>
+    <row r="145" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+    </row>
+    <row r="146" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+    </row>
+    <row r="147" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+    </row>
+    <row r="148" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
+    </row>
+    <row r="149" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
+    </row>
+    <row r="150" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+    </row>
+    <row r="151" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+    </row>
+    <row r="152" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="30"/>
+    </row>
+    <row r="153" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+    </row>
+    <row r="154" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+    </row>
+    <row r="155" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30"/>
+    </row>
+    <row r="156" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
+    </row>
+    <row r="157" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+    </row>
+    <row r="158" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+    </row>
+    <row r="159" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+    </row>
+    <row r="160" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
+    </row>
+    <row r="161" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+    </row>
+    <row r="162" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
+    </row>
+    <row r="163" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="30"/>
+    </row>
+    <row r="164" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+    </row>
+    <row r="165" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="30"/>
+    </row>
+    <row r="166" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+    </row>
+    <row r="167" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+    </row>
+    <row r="168" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+    </row>
+    <row r="169" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="30"/>
+    </row>
+    <row r="170" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="30"/>
+    </row>
+    <row r="171" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+    </row>
+    <row r="172" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="30"/>
+    </row>
+    <row r="173" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="30"/>
+    </row>
+    <row r="174" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="30"/>
+    </row>
+    <row r="175" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="30"/>
+    </row>
+    <row r="176" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="30"/>
+    </row>
+    <row r="177" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="30"/>
+    </row>
+    <row r="178" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30"/>
+    </row>
+    <row r="179" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
+      <c r="K179" s="30"/>
+      <c r="L179" s="30"/>
+    </row>
+    <row r="180" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
+      <c r="K180" s="30"/>
+      <c r="L180" s="30"/>
+    </row>
+    <row r="181" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="30"/>
+    </row>
+    <row r="182" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
+      <c r="K182" s="30"/>
+      <c r="L182" s="30"/>
+    </row>
+    <row r="183" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="30"/>
+    </row>
+    <row r="184" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="30"/>
+    </row>
+    <row r="185" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="30"/>
+    </row>
+    <row r="186" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
+      <c r="K186" s="30"/>
+      <c r="L186" s="30"/>
+    </row>
+    <row r="187" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
+      <c r="K187" s="30"/>
+      <c r="L187" s="30"/>
+    </row>
+    <row r="188" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="30"/>
+    </row>
+    <row r="189" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="30"/>
+    </row>
+    <row r="190" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="30"/>
+    </row>
+    <row r="191" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="30"/>
+    </row>
+    <row r="192" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
+      <c r="K192" s="30"/>
+      <c r="L192" s="30"/>
+    </row>
+    <row r="193" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="30"/>
+    </row>
+    <row r="194" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="30"/>
+    </row>
+    <row r="195" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="30"/>
+    </row>
+    <row r="196" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
+      <c r="K196" s="30"/>
+      <c r="L196" s="30"/>
+    </row>
+    <row r="197" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="30"/>
+    </row>
+    <row r="198" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
+      <c r="K198" s="30"/>
+      <c r="L198" s="30"/>
+    </row>
+    <row r="199" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
+      <c r="K199" s="30"/>
+      <c r="L199" s="30"/>
+    </row>
+    <row r="200" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
+      <c r="K200" s="30"/>
+      <c r="L200" s="30"/>
+    </row>
+    <row r="201" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="30"/>
+      <c r="K201" s="30"/>
+      <c r="L201" s="30"/>
+    </row>
+    <row r="202" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30"/>
+      <c r="I202" s="30"/>
+      <c r="J202" s="30"/>
+      <c r="K202" s="30"/>
+      <c r="L202" s="30"/>
+    </row>
+    <row r="203" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
+      <c r="I203" s="30"/>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
+      <c r="L203" s="30"/>
+    </row>
+    <row r="204" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="30"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30"/>
+      <c r="I204" s="30"/>
+      <c r="J204" s="30"/>
+      <c r="K204" s="30"/>
+      <c r="L204" s="30"/>
+    </row>
+    <row r="205" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="30"/>
+      <c r="K205" s="30"/>
+      <c r="L205" s="30"/>
+    </row>
+    <row r="206" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="30"/>
+      <c r="K206" s="30"/>
+      <c r="L206" s="30"/>
+    </row>
+    <row r="207" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30"/>
+      <c r="K207" s="30"/>
+      <c r="L207" s="30"/>
+    </row>
+    <row r="208" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="30"/>
+      <c r="K208" s="30"/>
+      <c r="L208" s="30"/>
+    </row>
+    <row r="209" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="30"/>
+      <c r="K209" s="30"/>
+      <c r="L209" s="30"/>
+    </row>
+    <row r="210" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="30"/>
+      <c r="K210" s="30"/>
+      <c r="L210" s="30"/>
+    </row>
+    <row r="211" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="30"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
+      <c r="L211" s="30"/>
+    </row>
+    <row r="212" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="30"/>
+      <c r="L212" s="30"/>
+    </row>
+    <row r="213" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="30"/>
+    </row>
+    <row r="214" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="30"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="30"/>
+      <c r="L214" s="30"/>
+    </row>
+    <row r="215" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="30"/>
+      <c r="L215" s="30"/>
+    </row>
+    <row r="216" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+    </row>
+    <row r="217" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="30"/>
+    </row>
+    <row r="218" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="30"/>
+    </row>
+    <row r="219" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="30"/>
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30"/>
+      <c r="K219" s="30"/>
+      <c r="L219" s="30"/>
+    </row>
+    <row r="220" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="30"/>
+    </row>
+    <row r="221" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="30"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="30"/>
+    </row>
+    <row r="222" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="30"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30"/>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30"/>
+      <c r="I222" s="30"/>
+      <c r="J222" s="30"/>
+      <c r="K222" s="30"/>
+      <c r="L222" s="30"/>
+    </row>
+    <row r="223" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="30"/>
+      <c r="K223" s="30"/>
+      <c r="L223" s="30"/>
+    </row>
+    <row r="224" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="30"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30"/>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30"/>
+      <c r="K224" s="30"/>
+      <c r="L224" s="30"/>
+    </row>
+    <row r="225" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30"/>
+      <c r="F225" s="30"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30"/>
+      <c r="I225" s="30"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="30"/>
+      <c r="L225" s="30"/>
+    </row>
+    <row r="226" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30"/>
+      <c r="F226" s="30"/>
+      <c r="G226" s="30"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="30"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="30"/>
+      <c r="L226" s="30"/>
+    </row>
+    <row r="227" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30"/>
+      <c r="F227" s="30"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="30"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="30"/>
+      <c r="L227" s="30"/>
+    </row>
+    <row r="228" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30"/>
+      <c r="F228" s="30"/>
+      <c r="G228" s="30"/>
+      <c r="H228" s="30"/>
+      <c r="I228" s="30"/>
+      <c r="J228" s="30"/>
+      <c r="K228" s="30"/>
+      <c r="L228" s="30"/>
+    </row>
+    <row r="229" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="30"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="30"/>
+      <c r="I229" s="30"/>
+      <c r="J229" s="30"/>
+      <c r="K229" s="30"/>
+      <c r="L229" s="30"/>
+    </row>
+    <row r="230" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30"/>
+      <c r="F230" s="30"/>
+      <c r="G230" s="30"/>
+      <c r="H230" s="30"/>
+      <c r="I230" s="30"/>
+      <c r="J230" s="30"/>
+      <c r="K230" s="30"/>
+      <c r="L230" s="30"/>
+    </row>
+    <row r="231" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="30"/>
+      <c r="G231" s="30"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="30"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="30"/>
+      <c r="L231" s="30"/>
+    </row>
+    <row r="232" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="30"/>
+      <c r="H232" s="30"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
+      <c r="L232" s="30"/>
+    </row>
+    <row r="233" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="30"/>
+      <c r="C233" s="30"/>
+      <c r="D233" s="30"/>
+      <c r="E233" s="30"/>
+      <c r="F233" s="30"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="30"/>
+      <c r="J233" s="30"/>
+      <c r="K233" s="30"/>
+      <c r="L233" s="30"/>
+    </row>
+    <row r="234" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="30"/>
+      <c r="C234" s="30"/>
+      <c r="D234" s="30"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="30"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30"/>
+      <c r="I234" s="30"/>
+      <c r="J234" s="30"/>
+      <c r="K234" s="30"/>
+      <c r="L234" s="30"/>
+    </row>
+    <row r="235" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30"/>
+      <c r="I235" s="30"/>
+      <c r="J235" s="30"/>
+      <c r="K235" s="30"/>
+      <c r="L235" s="30"/>
+    </row>
+    <row r="236" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30"/>
+      <c r="I236" s="30"/>
+      <c r="J236" s="30"/>
+      <c r="K236" s="30"/>
+      <c r="L236" s="30"/>
+    </row>
+    <row r="237" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
+      <c r="D237" s="30"/>
+      <c r="E237" s="30"/>
+      <c r="F237" s="30"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="30"/>
+      <c r="I237" s="30"/>
+      <c r="J237" s="30"/>
+      <c r="K237" s="30"/>
+      <c r="L237" s="30"/>
+    </row>
+    <row r="238" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="30"/>
+      <c r="C238" s="30"/>
+      <c r="D238" s="30"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="30"/>
+      <c r="G238" s="30"/>
+      <c r="H238" s="30"/>
+      <c r="I238" s="30"/>
+      <c r="J238" s="30"/>
+      <c r="K238" s="30"/>
+      <c r="L238" s="30"/>
+    </row>
+    <row r="239" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
+      <c r="D239" s="30"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="30"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="30"/>
+      <c r="J239" s="30"/>
+      <c r="K239" s="30"/>
+      <c r="L239" s="30"/>
+    </row>
+    <row r="240" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="30"/>
+      <c r="C240" s="30"/>
+      <c r="D240" s="30"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="30"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30"/>
+      <c r="I240" s="30"/>
+      <c r="J240" s="30"/>
+      <c r="K240" s="30"/>
+      <c r="L240" s="30"/>
+    </row>
+    <row r="241" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
+      <c r="D241" s="30"/>
+      <c r="E241" s="30"/>
+      <c r="F241" s="30"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="30"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="30"/>
+    </row>
+    <row r="242" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="30"/>
+      <c r="C242" s="30"/>
+      <c r="D242" s="30"/>
+      <c r="E242" s="30"/>
+      <c r="F242" s="30"/>
+      <c r="G242" s="30"/>
+      <c r="H242" s="30"/>
+      <c r="I242" s="30"/>
+      <c r="J242" s="30"/>
+      <c r="K242" s="30"/>
+      <c r="L242" s="30"/>
+    </row>
+    <row r="243" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="30"/>
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="30"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30"/>
+      <c r="K243" s="30"/>
+      <c r="L243" s="30"/>
+    </row>
+    <row r="244" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="30"/>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+    </row>
+    <row r="245" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+      <c r="E245" s="30"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="30"/>
+    </row>
+    <row r="246" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="30"/>
+      <c r="C246" s="30"/>
+      <c r="D246" s="30"/>
+      <c r="E246" s="30"/>
+      <c r="F246" s="30"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="30"/>
+      <c r="L246" s="30"/>
+    </row>
+    <row r="247" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+    </row>
+    <row r="248" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="30"/>
+      <c r="F248" s="30"/>
+      <c r="G248" s="30"/>
+      <c r="H248" s="30"/>
+      <c r="I248" s="30"/>
+      <c r="J248" s="30"/>
+      <c r="K248" s="30"/>
+      <c r="L248" s="30"/>
+    </row>
+    <row r="249" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="30"/>
+      <c r="F249" s="30"/>
+      <c r="G249" s="30"/>
+      <c r="H249" s="30"/>
+      <c r="I249" s="30"/>
+      <c r="J249" s="30"/>
+      <c r="K249" s="30"/>
+      <c r="L249" s="30"/>
+    </row>
+    <row r="250" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="30"/>
+      <c r="F250" s="30"/>
+      <c r="G250" s="30"/>
+      <c r="H250" s="30"/>
+      <c r="I250" s="30"/>
+      <c r="J250" s="30"/>
+      <c r="K250" s="30"/>
+      <c r="L250" s="30"/>
+    </row>
+    <row r="251" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="30"/>
+      <c r="G251" s="30"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="30"/>
+      <c r="J251" s="30"/>
+      <c r="K251" s="30"/>
+      <c r="L251" s="30"/>
+    </row>
+    <row r="252" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
+      <c r="D252" s="30"/>
+      <c r="E252" s="30"/>
+      <c r="F252" s="30"/>
+      <c r="G252" s="30"/>
+      <c r="H252" s="30"/>
+      <c r="I252" s="30"/>
+      <c r="J252" s="30"/>
+      <c r="K252" s="30"/>
+      <c r="L252" s="30"/>
+    </row>
+    <row r="253" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="30"/>
+      <c r="E253" s="30"/>
+      <c r="F253" s="30"/>
+      <c r="G253" s="30"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="30"/>
+      <c r="J253" s="30"/>
+      <c r="K253" s="30"/>
+      <c r="L253" s="30"/>
+    </row>
+    <row r="254" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
+      <c r="D254" s="30"/>
+      <c r="E254" s="30"/>
+      <c r="F254" s="30"/>
+      <c r="G254" s="30"/>
+      <c r="H254" s="30"/>
+      <c r="I254" s="30"/>
+      <c r="J254" s="30"/>
+      <c r="K254" s="30"/>
+      <c r="L254" s="30"/>
+    </row>
+    <row r="255" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="30"/>
+      <c r="C255" s="30"/>
+      <c r="D255" s="30"/>
+      <c r="E255" s="30"/>
+      <c r="F255" s="30"/>
+      <c r="G255" s="30"/>
+      <c r="H255" s="30"/>
+      <c r="I255" s="30"/>
+      <c r="J255" s="30"/>
+      <c r="K255" s="30"/>
+      <c r="L255" s="30"/>
+    </row>
+    <row r="256" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="30"/>
+      <c r="C256" s="30"/>
+      <c r="D256" s="30"/>
+      <c r="E256" s="30"/>
+      <c r="F256" s="30"/>
+      <c r="G256" s="30"/>
+      <c r="H256" s="30"/>
+      <c r="I256" s="30"/>
+      <c r="J256" s="30"/>
+      <c r="K256" s="30"/>
+      <c r="L256" s="30"/>
+    </row>
+    <row r="257" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
+      <c r="E257" s="30"/>
+      <c r="F257" s="30"/>
+      <c r="G257" s="30"/>
+      <c r="H257" s="30"/>
+      <c r="I257" s="30"/>
+      <c r="J257" s="30"/>
+      <c r="K257" s="30"/>
+      <c r="L257" s="30"/>
+    </row>
+    <row r="258" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="30"/>
+      <c r="E258" s="30"/>
+      <c r="F258" s="30"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="30"/>
+      <c r="I258" s="30"/>
+      <c r="J258" s="30"/>
+      <c r="K258" s="30"/>
+      <c r="L258" s="30"/>
+    </row>
+    <row r="259" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
+      <c r="F259" s="30"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="30"/>
+      <c r="J259" s="30"/>
+      <c r="K259" s="30"/>
+      <c r="L259" s="30"/>
+    </row>
+    <row r="260" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="30"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+    </row>
+    <row r="261" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
+      <c r="F261" s="30"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+      <c r="J261" s="30"/>
+      <c r="K261" s="30"/>
+      <c r="L261" s="30"/>
+    </row>
+    <row r="262" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30"/>
+      <c r="F262" s="30"/>
+      <c r="G262" s="30"/>
+      <c r="H262" s="30"/>
+      <c r="I262" s="30"/>
+      <c r="J262" s="30"/>
+      <c r="K262" s="30"/>
+      <c r="L262" s="30"/>
+    </row>
+    <row r="263" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30"/>
+      <c r="F263" s="30"/>
+      <c r="G263" s="30"/>
+      <c r="H263" s="30"/>
+      <c r="I263" s="30"/>
+      <c r="J263" s="30"/>
+      <c r="K263" s="30"/>
+      <c r="L263" s="30"/>
+    </row>
+    <row r="264" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
+      <c r="F264" s="30"/>
+      <c r="G264" s="30"/>
+      <c r="H264" s="30"/>
+      <c r="I264" s="30"/>
+      <c r="J264" s="30"/>
+      <c r="K264" s="30"/>
+      <c r="L264" s="30"/>
+    </row>
+    <row r="265" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
+      <c r="F265" s="30"/>
+      <c r="G265" s="30"/>
+      <c r="H265" s="30"/>
+      <c r="I265" s="30"/>
+      <c r="J265" s="30"/>
+      <c r="K265" s="30"/>
+      <c r="L265" s="30"/>
+    </row>
+    <row r="266" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
+      <c r="F266" s="30"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="30"/>
+      <c r="I266" s="30"/>
+      <c r="J266" s="30"/>
+      <c r="K266" s="30"/>
+      <c r="L266" s="30"/>
+    </row>
+    <row r="267" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="30"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="30"/>
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+    </row>
+    <row r="268" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
+      <c r="D268" s="30"/>
+      <c r="E268" s="30"/>
+      <c r="F268" s="30"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="30"/>
+      <c r="I268" s="30"/>
+      <c r="J268" s="30"/>
+      <c r="K268" s="30"/>
+      <c r="L268" s="30"/>
+    </row>
+    <row r="269" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
+      <c r="E269" s="30"/>
+      <c r="F269" s="30"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="30"/>
+      <c r="K269" s="30"/>
+      <c r="L269" s="30"/>
+    </row>
+    <row r="270" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
+      <c r="D270" s="30"/>
+      <c r="E270" s="30"/>
+      <c r="F270" s="30"/>
+      <c r="G270" s="30"/>
+      <c r="H270" s="30"/>
+      <c r="I270" s="30"/>
+      <c r="J270" s="30"/>
+      <c r="K270" s="30"/>
+      <c r="L270" s="30"/>
+    </row>
+    <row r="271" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
+      <c r="D271" s="30"/>
+      <c r="E271" s="30"/>
+      <c r="F271" s="30"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="30"/>
+      <c r="I271" s="30"/>
+      <c r="J271" s="30"/>
+      <c r="K271" s="30"/>
+      <c r="L271" s="30"/>
+    </row>
+    <row r="272" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
+      <c r="D272" s="30"/>
+      <c r="E272" s="30"/>
+      <c r="F272" s="30"/>
+      <c r="G272" s="30"/>
+      <c r="H272" s="30"/>
+      <c r="I272" s="30"/>
+      <c r="J272" s="30"/>
+      <c r="K272" s="30"/>
+      <c r="L272" s="30"/>
+    </row>
+    <row r="273" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30"/>
+      <c r="F273" s="30"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="30"/>
+      <c r="I273" s="30"/>
+      <c r="J273" s="30"/>
+      <c r="K273" s="30"/>
+      <c r="L273" s="30"/>
+    </row>
+    <row r="274" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
+      <c r="D274" s="30"/>
+      <c r="E274" s="30"/>
+      <c r="F274" s="30"/>
+      <c r="G274" s="30"/>
+      <c r="H274" s="30"/>
+      <c r="I274" s="30"/>
+      <c r="J274" s="30"/>
+      <c r="K274" s="30"/>
+      <c r="L274" s="30"/>
+    </row>
+    <row r="275" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
+      <c r="L275" s="30"/>
+    </row>
+    <row r="276" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="30"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="30"/>
+      <c r="I276" s="30"/>
+      <c r="J276" s="30"/>
+      <c r="K276" s="30"/>
+      <c r="L276" s="30"/>
+    </row>
+    <row r="277" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="30"/>
+      <c r="I277" s="30"/>
+      <c r="J277" s="30"/>
+      <c r="K277" s="30"/>
+      <c r="L277" s="30"/>
+    </row>
+    <row r="278" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="30"/>
+      <c r="I278" s="30"/>
+      <c r="J278" s="30"/>
+      <c r="K278" s="30"/>
+      <c r="L278" s="30"/>
+    </row>
+    <row r="279" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="30"/>
+      <c r="K279" s="30"/>
+      <c r="L279" s="30"/>
+    </row>
+    <row r="280" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
+      <c r="E280" s="30"/>
+      <c r="F280" s="30"/>
+      <c r="G280" s="30"/>
+      <c r="H280" s="30"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="30"/>
+      <c r="K280" s="30"/>
+      <c r="L280" s="30"/>
+    </row>
+    <row r="281" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
+      <c r="E281" s="30"/>
+      <c r="F281" s="30"/>
+      <c r="G281" s="30"/>
+      <c r="H281" s="30"/>
+      <c r="I281" s="30"/>
+      <c r="J281" s="30"/>
+      <c r="K281" s="30"/>
+      <c r="L281" s="30"/>
+    </row>
+    <row r="282" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="30"/>
+      <c r="I282" s="30"/>
+      <c r="J282" s="30"/>
+      <c r="K282" s="30"/>
+      <c r="L282" s="30"/>
+    </row>
+    <row r="283" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="30"/>
+      <c r="I283" s="30"/>
+      <c r="J283" s="30"/>
+      <c r="K283" s="30"/>
+      <c r="L283" s="30"/>
+    </row>
+    <row r="284" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
+      <c r="E284" s="30"/>
+      <c r="F284" s="30"/>
+      <c r="G284" s="30"/>
+      <c r="H284" s="30"/>
+      <c r="I284" s="30"/>
+      <c r="J284" s="30"/>
+      <c r="K284" s="30"/>
+      <c r="L284" s="30"/>
+    </row>
+    <row r="285" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
+      <c r="F285" s="30"/>
+      <c r="G285" s="30"/>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30"/>
+      <c r="J285" s="30"/>
+      <c r="K285" s="30"/>
+      <c r="L285" s="30"/>
+    </row>
+    <row r="286" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="30"/>
+      <c r="F286" s="30"/>
+      <c r="G286" s="30"/>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
+      <c r="J286" s="30"/>
+      <c r="K286" s="30"/>
+      <c r="L286" s="30"/>
+    </row>
+    <row r="287" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
+      <c r="J287" s="30"/>
+      <c r="K287" s="30"/>
+      <c r="L287" s="30"/>
+    </row>
+    <row r="288" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
+      <c r="J288" s="30"/>
+      <c r="K288" s="30"/>
+      <c r="L288" s="30"/>
+    </row>
+    <row r="289" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30"/>
+      <c r="J289" s="30"/>
+      <c r="K289" s="30"/>
+      <c r="L289" s="30"/>
+    </row>
+    <row r="290" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="30"/>
+      <c r="G290" s="30"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="30"/>
+      <c r="J290" s="30"/>
+      <c r="K290" s="30"/>
+      <c r="L290" s="30"/>
+    </row>
+    <row r="291" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
+      <c r="F291" s="30"/>
+      <c r="G291" s="30"/>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30"/>
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+    </row>
+    <row r="292" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
+      <c r="D292" s="30"/>
+      <c r="E292" s="30"/>
+      <c r="F292" s="30"/>
+      <c r="G292" s="30"/>
+      <c r="H292" s="30"/>
+      <c r="I292" s="30"/>
+      <c r="J292" s="30"/>
+      <c r="K292" s="30"/>
+      <c r="L292" s="30"/>
+    </row>
+    <row r="293" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="30"/>
+      <c r="F293" s="30"/>
+      <c r="G293" s="30"/>
+      <c r="H293" s="30"/>
+      <c r="I293" s="30"/>
+      <c r="J293" s="30"/>
+      <c r="K293" s="30"/>
+      <c r="L293" s="30"/>
+    </row>
+    <row r="294" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
+      <c r="D294" s="30"/>
+      <c r="E294" s="30"/>
+      <c r="F294" s="30"/>
+      <c r="G294" s="30"/>
+      <c r="H294" s="30"/>
+      <c r="I294" s="30"/>
+      <c r="J294" s="30"/>
+      <c r="K294" s="30"/>
+      <c r="L294" s="30"/>
+    </row>
+    <row r="295" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
+      <c r="D295" s="30"/>
+      <c r="E295" s="30"/>
+      <c r="F295" s="30"/>
+      <c r="G295" s="30"/>
+      <c r="H295" s="30"/>
+      <c r="I295" s="30"/>
+      <c r="J295" s="30"/>
+      <c r="K295" s="30"/>
+      <c r="L295" s="30"/>
+    </row>
+    <row r="296" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="30"/>
+      <c r="G296" s="30"/>
+      <c r="H296" s="30"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+      <c r="L296" s="30"/>
+    </row>
+    <row r="297" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="30"/>
+      <c r="H297" s="30"/>
+      <c r="I297" s="30"/>
+      <c r="J297" s="30"/>
+      <c r="K297" s="30"/>
+      <c r="L297" s="30"/>
+    </row>
+    <row r="298" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30"/>
+      <c r="G298" s="30"/>
+      <c r="H298" s="30"/>
+      <c r="I298" s="30"/>
+      <c r="J298" s="30"/>
+      <c r="K298" s="30"/>
+      <c r="L298" s="30"/>
+    </row>
+    <row r="299" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="30"/>
+      <c r="H299" s="30"/>
+      <c r="I299" s="30"/>
+      <c r="J299" s="30"/>
+      <c r="K299" s="30"/>
+      <c r="L299" s="30"/>
+    </row>
+    <row r="300" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="30"/>
+      <c r="D300" s="30"/>
+      <c r="G300" s="30"/>
+    </row>
+    <row r="301" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="30"/>
+      <c r="D301" s="30"/>
+      <c r="G301" s="30"/>
+    </row>
+    <row r="302" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="30"/>
+      <c r="D302" s="30"/>
+      <c r="G302" s="30"/>
+    </row>
+    <row r="303" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+      <c r="G303" s="30"/>
+    </row>
+    <row r="304" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D304" s="30"/>
+      <c r="G304" s="30"/>
+    </row>
+    <row r="305" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D305" s="30"/>
+      <c r="G305" s="30"/>
+    </row>
+    <row r="306" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D306" s="30"/>
+      <c r="G306" s="30"/>
+    </row>
+    <row r="307" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D307" s="30"/>
+      <c r="G307" s="30"/>
+    </row>
+    <row r="308" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G308" s="30"/>
+    </row>
+    <row r="309" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G309" s="30"/>
+    </row>
+    <row r="310" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G310" s="30"/>
+    </row>
+    <row r="311" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G311" s="30"/>
+    </row>
+    <row r="312" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G312" s="30"/>
+    </row>
+    <row r="313" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G313" s="30"/>
+    </row>
+    <row r="314" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G314" s="30"/>
+    </row>
+    <row r="315" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="30"/>
+    </row>
+    <row r="316" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="30"/>
+    </row>
+    <row r="317" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="30"/>
+    </row>
+    <row r="318" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G318" s="30"/>
+    </row>
+    <row r="319" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G319" s="30"/>
+    </row>
+    <row r="320" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="30"/>
+    </row>
+    <row r="321" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="30"/>
+    </row>
+    <row r="322" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G322" s="30"/>
+    </row>
+    <row r="323" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="30"/>
+    </row>
+    <row r="324" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="30"/>
+    </row>
+    <row r="325" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="30"/>
+    </row>
+    <row r="326" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="30"/>
+    </row>
+    <row r="327" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="30"/>
+    </row>
+    <row r="328" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="30"/>
+    </row>
+    <row r="329" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G329" s="30"/>
+    </row>
+    <row r="330" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G330" s="30"/>
+    </row>
+    <row r="331" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G331" s="30"/>
+    </row>
+    <row r="332" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G332" s="30"/>
+    </row>
+    <row r="333" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="30"/>
+    </row>
+    <row r="334" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="30"/>
+    </row>
+    <row r="335" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="30"/>
+    </row>
+    <row r="336" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="30"/>
+    </row>
+    <row r="337" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="30"/>
+    </row>
+    <row r="338" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="30"/>
+    </row>
+    <row r="339" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="30"/>
+    </row>
+    <row r="340" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="30"/>
+    </row>
+    <row r="341" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G341" s="30"/>
+    </row>
+    <row r="342" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G342" s="30"/>
+    </row>
+    <row r="343" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G343" s="30"/>
+    </row>
+    <row r="344" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="30"/>
+    </row>
+    <row r="345" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G345" s="30"/>
+    </row>
+    <row r="346" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G346" s="30"/>
+    </row>
+    <row r="347" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G347" s="30"/>
+    </row>
+    <row r="348" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G348" s="30"/>
+    </row>
+    <row r="349" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="30"/>
+    </row>
+    <row r="350" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="30"/>
+    </row>
+    <row r="351" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="30"/>
+    </row>
+    <row r="352" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="30"/>
+    </row>
+    <row r="353" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G353" s="30"/>
+    </row>
+    <row r="354" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="30"/>
+    </row>
+    <row r="355" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="30"/>
+    </row>
+    <row r="356" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G356" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+  <mergeCells count="13">
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J28:K28"/>
@@ -4924,16 +8488,20 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G36" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
-      <formula1>VARIABLES</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C36" xr:uid="{7419D0B0-27D5-40C0-A621-28CE3CD66759}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C303" xr:uid="{7419D0B0-27D5-40C0-A621-28CE3CD66759}">
       <formula1>URL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36" xr:uid="{3ACD009E-B85B-4896-BD3C-B3139BF300EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D307" xr:uid="{3ACD009E-B85B-4896-BD3C-B3139BF300EE}">
       <formula1>Triggers</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G356" xr:uid="{279A0098-FA03-4832-BB44-9FAB6659F105}">
+      <formula1>VARIABLES</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4945,13 +8513,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E1451-794D-4AAA-996A-CBECC3B02661}">
-  <dimension ref="A11:AMH310"/>
+  <dimension ref="A11:AMH44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -4969,32 +8537,31 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5002,7 +8569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5010,7 +8577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5018,7 +8585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5026,7 +8593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5034,77 +8601,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="28" t="s">
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="27"/>
+      <c r="I29" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="26"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5121,481 +8688,211 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="33"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="31"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="31"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="31"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="38"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="38"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="38"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="43"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="38"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="38"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B29:B30"/>
@@ -5607,6 +8904,7 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B31:B38"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{7B368695-474D-4373-B4AA-85B1667124A2}">
@@ -5628,13 +8926,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704531C-E89D-482F-A691-8949287AF91E}">
-  <dimension ref="A11:AMH315"/>
+  <dimension ref="A11:AMH49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G48"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -5652,32 +8950,31 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5685,7 +8982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5693,7 +8990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5701,7 +8998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5709,7 +9006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5717,77 +9014,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="28" t="s">
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="27"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="26"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5804,572 +9101,295 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-    </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-    </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-    </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-    </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-    </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-    </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-    </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-    </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-    </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-    </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-    </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-    </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-    </row>
-    <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="44"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="44"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="44"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="44"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="44"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="44"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="44"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="44"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="44"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="44"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="6:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="12">
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="D31:D48"/>
-    <mergeCell ref="E31:E48"/>
-    <mergeCell ref="G31:G48"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L31:L48"/>
-    <mergeCell ref="M31:M48"/>
-    <mergeCell ref="N31:N48"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I31:I48"/>
-    <mergeCell ref="J31:J48"/>
-    <mergeCell ref="K31:K48"/>
-    <mergeCell ref="H31:H48"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C48" xr:uid="{313610C3-1725-4BDE-B2FF-49FB559662B0}">

--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaxis\tagCalc\tagModules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCE2EF-7A8F-426A-A0DE-864AB70F0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BD197-E9A7-4E19-9246-99340D203438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,10 @@
     <definedName name="SI">'Tagging Request'!$I$31</definedName>
     <definedName name="SI_NO">Listas!$D$3:$D$5</definedName>
     <definedName name="Taboola">Listas!$E$3:$E$4</definedName>
-    <definedName name="Triggers">Listas!$C$3:$C$5</definedName>
+    <definedName name="Triggers">Listas!$C$3:$C$6</definedName>
     <definedName name="Última_interacción" localSheetId="3">Funnel!$C$19</definedName>
     <definedName name="Última_interacción">'Tagging Request'!$C$19</definedName>
-    <definedName name="URL">Listas!$F$3:$F$4</definedName>
+    <definedName name="URL">Listas!$F$3:$F$8</definedName>
     <definedName name="VARIABLES" comment="Custom variables to get valuable information.">Listas!$B$3:$B$6</definedName>
     <definedName name="Ventas" localSheetId="3">Funnel!$C$17</definedName>
     <definedName name="Ventas">'Tagging Request'!$C$17</definedName>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Agencia</t>
   </si>
@@ -325,6 +325,47 @@
   <si>
     <t>u/p</t>
   </si>
+  <si>
+    <t>Pixel [M] Insights
+GA4 Events</t>
+  </si>
+  <si>
+    <t>Xandr - Google Ads</t>
+  </si>
+  <si>
+    <t>DV360 - Facebook Events</t>
+  </si>
+  <si>
+    <t>Advocacy</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Xandr - ADS</t>
+  </si>
+  <si>
+    <t>Pixel [M] Insights
+Facebook</t>
+  </si>
+  <si>
+    <t>DV360 - GA4</t>
+  </si>
+  <si>
+    <t>Taboola - Twitter - TikTok</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +410,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,8 +447,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -627,11 +680,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -685,8 +788,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,19 +835,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +950,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2089080</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,8 +1216,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1717560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1135,8 +1264,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1717560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1183,8 +1312,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1546110</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1519,11 +1648,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A18:AMJ136"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -1542,1051 +1671,1051 @@
     <col min="17" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+    <row r="18" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+    <row r="20" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+    <row r="21" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+    <row r="22" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+    <row r="23" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+    <row r="24" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+    <row r="25" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+    <row r="26" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+    <row r="27" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+    <row r="28" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+    <row r="29" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+    <row r="30" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+    <row r="31" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+    <row r="32" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+    <row r="33" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+    <row r="34" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+    <row r="35" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+    <row r="36" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+    <row r="37" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+    <row r="38" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+    <row r="39" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+    <row r="40" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+    <row r="41" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+    <row r="42" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+    <row r="43" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+    <row r="44" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+    <row r="45" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+    <row r="46" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+    <row r="47" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+    <row r="48" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+    <row r="49" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+    <row r="50" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+    <row r="51" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+    <row r="52" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+    <row r="53" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+    <row r="54" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+    <row r="55" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+    <row r="56" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+    <row r="57" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+    <row r="58" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+    <row r="59" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+    <row r="60" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+    <row r="61" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+    <row r="62" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+    <row r="63" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+    <row r="64" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+    <row r="65" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+    <row r="66" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+    <row r="67" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+    <row r="68" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+    <row r="69" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+    <row r="70" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+    <row r="71" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+    <row r="72" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+    <row r="73" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+    <row r="74" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+    <row r="75" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+    <row r="76" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+    <row r="77" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+    <row r="78" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+    <row r="79" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+    <row r="80" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+    <row r="81" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+    <row r="82" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+    <row r="83" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+    <row r="84" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+    <row r="85" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
+    <row r="86" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
+    <row r="87" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+    <row r="88" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
+    <row r="89" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
+    <row r="90" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+    <row r="91" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+    <row r="92" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
+    <row r="93" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
+    <row r="94" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
+    <row r="95" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+    <row r="96" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
+    <row r="97" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
+    <row r="98" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
+    <row r="99" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
+    <row r="100" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
+    <row r="101" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
+    <row r="102" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
+    <row r="103" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
+    <row r="104" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
+    <row r="105" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
+    <row r="106" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
+    <row r="107" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
+    <row r="108" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
+    <row r="109" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
+    <row r="110" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
+    <row r="111" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
+    <row r="112" spans="2:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-    </row>
-    <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-    </row>
-    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-    </row>
-    <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-    </row>
-    <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-    </row>
-    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-    </row>
-    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-    </row>
-    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-    </row>
-    <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-    </row>
-    <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-    </row>
-    <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-    </row>
-    <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-    </row>
-    <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-    </row>
-    <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-    </row>
-    <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-    </row>
-    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-    </row>
-    <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-    </row>
-    <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-    </row>
-    <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-    </row>
-    <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-    </row>
-    <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-    </row>
-    <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-    </row>
-    <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-    </row>
-    <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
+    <row r="113" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+    </row>
+    <row r="114" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+    </row>
+    <row r="115" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+    </row>
+    <row r="116" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+    </row>
+    <row r="117" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+    </row>
+    <row r="118" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+    </row>
+    <row r="119" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+    </row>
+    <row r="120" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+    </row>
+    <row r="121" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+    </row>
+    <row r="122" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+    </row>
+    <row r="123" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+    </row>
+    <row r="124" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+    </row>
+    <row r="125" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+    </row>
+    <row r="126" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+    </row>
+    <row r="127" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+    </row>
+    <row r="128" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+    </row>
+    <row r="129" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+    </row>
+    <row r="130" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+    </row>
+    <row r="131" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+    </row>
+    <row r="132" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+    </row>
+    <row r="133" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+    </row>
+    <row r="134" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+    </row>
+    <row r="135" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+    </row>
+    <row r="136" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2603,7 +2732,7 @@
   <dimension ref="A1:CD559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,20 +2740,21 @@
     <col min="1" max="1" width="8.88671875" style="11"/>
     <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="21" max="82" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -2649,13 +2779,13 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -2666,10 +2796,10 @@
       </c>
     </row>
     <row r="4" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2678,29 +2808,44 @@
       <c r="E4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="26"/>
+      <c r="F5" s="15" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="25" t="s">
         <v>38</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
@@ -4364,21 +4509,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A11:AMH303"/>
+  <dimension ref="A1:AMH356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="31" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="31" customWidth="1"/>
     <col min="5" max="5" width="49.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="31" customWidth="1"/>
     <col min="8" max="9" width="30.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="1" customWidth="1"/>
@@ -4388,142 +4533,242 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="26" t="s">
+      <c r="D23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="25"/>
+      <c r="I29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4540,378 +4785,3700 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="37"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+    </row>
+    <row r="57" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+    </row>
+    <row r="59" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+    </row>
+    <row r="60" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+    </row>
+    <row r="63" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+    </row>
+    <row r="64" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+    </row>
+    <row r="65" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+    </row>
+    <row r="66" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+    </row>
+    <row r="67" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+    </row>
+    <row r="69" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+    </row>
+    <row r="70" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+    </row>
+    <row r="73" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+    </row>
+    <row r="75" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+    </row>
+    <row r="76" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+    </row>
+    <row r="77" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+    </row>
+    <row r="78" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+    </row>
+    <row r="80" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+    </row>
+    <row r="89" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+    </row>
+    <row r="91" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+    </row>
+    <row r="92" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+    </row>
+    <row r="93" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+    </row>
+    <row r="94" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+    </row>
+    <row r="95" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+    </row>
+    <row r="96" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+    </row>
+    <row r="97" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="30"/>
+    </row>
+    <row r="98" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+    </row>
+    <row r="99" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+    </row>
+    <row r="100" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+    </row>
+    <row r="101" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+    </row>
+    <row r="102" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+    </row>
+    <row r="103" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+    </row>
+    <row r="104" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+    </row>
+    <row r="105" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+    </row>
+    <row r="106" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+    </row>
+    <row r="107" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+    </row>
+    <row r="108" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+    </row>
+    <row r="109" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+    </row>
+    <row r="110" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
+    </row>
+    <row r="111" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+    </row>
+    <row r="112" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+    </row>
+    <row r="113" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+    </row>
+    <row r="116" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+    </row>
+    <row r="117" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+    </row>
+    <row r="118" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+    </row>
+    <row r="119" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+    </row>
+    <row r="120" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+    </row>
+    <row r="121" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="30"/>
+    </row>
+    <row r="122" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+    </row>
+    <row r="123" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+    </row>
+    <row r="124" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+    </row>
+    <row r="125" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="30"/>
+    </row>
+    <row r="126" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="30"/>
+    </row>
+    <row r="127" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="30"/>
+    </row>
+    <row r="128" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+    </row>
+    <row r="129" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="30"/>
+    </row>
+    <row r="130" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+    </row>
+    <row r="131" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="30"/>
+    </row>
+    <row r="132" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+    </row>
+    <row r="133" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+    </row>
+    <row r="134" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+    </row>
+    <row r="135" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+    </row>
+    <row r="136" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+    </row>
+    <row r="137" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+    </row>
+    <row r="138" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+    </row>
+    <row r="139" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+    </row>
+    <row r="140" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+    </row>
+    <row r="141" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+    </row>
+    <row r="142" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+    </row>
+    <row r="143" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+    </row>
+    <row r="144" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+    </row>
+    <row r="145" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+    </row>
+    <row r="146" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+    </row>
+    <row r="147" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+    </row>
+    <row r="148" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
+    </row>
+    <row r="149" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="30"/>
+    </row>
+    <row r="150" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+    </row>
+    <row r="151" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+    </row>
+    <row r="152" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="30"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="30"/>
+    </row>
+    <row r="153" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+    </row>
+    <row r="154" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+    </row>
+    <row r="155" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30"/>
+    </row>
+    <row r="156" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
+    </row>
+    <row r="157" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+    </row>
+    <row r="158" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+    </row>
+    <row r="159" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+    </row>
+    <row r="160" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
+    </row>
+    <row r="161" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+    </row>
+    <row r="162" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
+    </row>
+    <row r="163" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="30"/>
+    </row>
+    <row r="164" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+    </row>
+    <row r="165" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="30"/>
+    </row>
+    <row r="166" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+    </row>
+    <row r="167" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30"/>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+    </row>
+    <row r="168" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+    </row>
+    <row r="169" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="30"/>
+    </row>
+    <row r="170" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="30"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="30"/>
+    </row>
+    <row r="171" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="30"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+    </row>
+    <row r="172" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="30"/>
+    </row>
+    <row r="173" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="30"/>
+    </row>
+    <row r="174" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="30"/>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="30"/>
+    </row>
+    <row r="175" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30"/>
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="30"/>
+    </row>
+    <row r="176" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="30"/>
+    </row>
+    <row r="177" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="30"/>
+    </row>
+    <row r="178" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="30"/>
+    </row>
+    <row r="179" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="30"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
+      <c r="K179" s="30"/>
+      <c r="L179" s="30"/>
+    </row>
+    <row r="180" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
+      <c r="K180" s="30"/>
+      <c r="L180" s="30"/>
+    </row>
+    <row r="181" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="30"/>
+    </row>
+    <row r="182" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
+      <c r="K182" s="30"/>
+      <c r="L182" s="30"/>
+    </row>
+    <row r="183" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="30"/>
+    </row>
+    <row r="184" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
+      <c r="F184" s="30"/>
+      <c r="G184" s="30"/>
+      <c r="H184" s="30"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="30"/>
+    </row>
+    <row r="185" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="30"/>
+    </row>
+    <row r="186" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
+      <c r="K186" s="30"/>
+      <c r="L186" s="30"/>
+    </row>
+    <row r="187" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
+      <c r="K187" s="30"/>
+      <c r="L187" s="30"/>
+    </row>
+    <row r="188" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="30"/>
+    </row>
+    <row r="189" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="30"/>
+    </row>
+    <row r="190" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="30"/>
+    </row>
+    <row r="191" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="30"/>
+    </row>
+    <row r="192" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
+      <c r="K192" s="30"/>
+      <c r="L192" s="30"/>
+    </row>
+    <row r="193" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="30"/>
+    </row>
+    <row r="194" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
+      <c r="F194" s="30"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="30"/>
+    </row>
+    <row r="195" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+      <c r="F195" s="30"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="30"/>
+    </row>
+    <row r="196" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
+      <c r="K196" s="30"/>
+      <c r="L196" s="30"/>
+    </row>
+    <row r="197" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="30"/>
+    </row>
+    <row r="198" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
+      <c r="K198" s="30"/>
+      <c r="L198" s="30"/>
+    </row>
+    <row r="199" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
+      <c r="K199" s="30"/>
+      <c r="L199" s="30"/>
+    </row>
+    <row r="200" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="30"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
+      <c r="K200" s="30"/>
+      <c r="L200" s="30"/>
+    </row>
+    <row r="201" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="30"/>
+      <c r="J201" s="30"/>
+      <c r="K201" s="30"/>
+      <c r="L201" s="30"/>
+    </row>
+    <row r="202" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30"/>
+      <c r="I202" s="30"/>
+      <c r="J202" s="30"/>
+      <c r="K202" s="30"/>
+      <c r="L202" s="30"/>
+    </row>
+    <row r="203" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
+      <c r="I203" s="30"/>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
+      <c r="L203" s="30"/>
+    </row>
+    <row r="204" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="30"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30"/>
+      <c r="I204" s="30"/>
+      <c r="J204" s="30"/>
+      <c r="K204" s="30"/>
+      <c r="L204" s="30"/>
+    </row>
+    <row r="205" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
+      <c r="I205" s="30"/>
+      <c r="J205" s="30"/>
+      <c r="K205" s="30"/>
+      <c r="L205" s="30"/>
+    </row>
+    <row r="206" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="30"/>
+      <c r="K206" s="30"/>
+      <c r="L206" s="30"/>
+    </row>
+    <row r="207" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30"/>
+      <c r="K207" s="30"/>
+      <c r="L207" s="30"/>
+    </row>
+    <row r="208" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="30"/>
+      <c r="H208" s="30"/>
+      <c r="I208" s="30"/>
+      <c r="J208" s="30"/>
+      <c r="K208" s="30"/>
+      <c r="L208" s="30"/>
+    </row>
+    <row r="209" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="30"/>
+      <c r="H209" s="30"/>
+      <c r="I209" s="30"/>
+      <c r="J209" s="30"/>
+      <c r="K209" s="30"/>
+      <c r="L209" s="30"/>
+    </row>
+    <row r="210" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="30"/>
+      <c r="H210" s="30"/>
+      <c r="I210" s="30"/>
+      <c r="J210" s="30"/>
+      <c r="K210" s="30"/>
+      <c r="L210" s="30"/>
+    </row>
+    <row r="211" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="30"/>
+      <c r="G211" s="30"/>
+      <c r="H211" s="30"/>
+      <c r="I211" s="30"/>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
+      <c r="L211" s="30"/>
+    </row>
+    <row r="212" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="30"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="30"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="30"/>
+      <c r="L212" s="30"/>
+    </row>
+    <row r="213" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30"/>
+      <c r="H213" s="30"/>
+      <c r="I213" s="30"/>
+      <c r="J213" s="30"/>
+      <c r="K213" s="30"/>
+      <c r="L213" s="30"/>
+    </row>
+    <row r="214" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="30"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
+      <c r="I214" s="30"/>
+      <c r="J214" s="30"/>
+      <c r="K214" s="30"/>
+      <c r="L214" s="30"/>
+    </row>
+    <row r="215" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30"/>
+      <c r="J215" s="30"/>
+      <c r="K215" s="30"/>
+      <c r="L215" s="30"/>
+    </row>
+    <row r="216" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="I216" s="30"/>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="30"/>
+    </row>
+    <row r="217" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30"/>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
+      <c r="L217" s="30"/>
+    </row>
+    <row r="218" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="I218" s="30"/>
+      <c r="J218" s="30"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="30"/>
+    </row>
+    <row r="219" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="30"/>
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+      <c r="J219" s="30"/>
+      <c r="K219" s="30"/>
+      <c r="L219" s="30"/>
+    </row>
+    <row r="220" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="30"/>
+    </row>
+    <row r="221" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="30"/>
+      <c r="I221" s="30"/>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
+      <c r="L221" s="30"/>
+    </row>
+    <row r="222" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="30"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30"/>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30"/>
+      <c r="I222" s="30"/>
+      <c r="J222" s="30"/>
+      <c r="K222" s="30"/>
+      <c r="L222" s="30"/>
+    </row>
+    <row r="223" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="30"/>
+      <c r="K223" s="30"/>
+      <c r="L223" s="30"/>
+    </row>
+    <row r="224" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="30"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30"/>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30"/>
+      <c r="K224" s="30"/>
+      <c r="L224" s="30"/>
+    </row>
+    <row r="225" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30"/>
+      <c r="F225" s="30"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30"/>
+      <c r="I225" s="30"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="30"/>
+      <c r="L225" s="30"/>
+    </row>
+    <row r="226" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30"/>
+      <c r="F226" s="30"/>
+      <c r="G226" s="30"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="30"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="30"/>
+      <c r="L226" s="30"/>
+    </row>
+    <row r="227" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30"/>
+      <c r="F227" s="30"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="30"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="30"/>
+      <c r="L227" s="30"/>
+    </row>
+    <row r="228" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30"/>
+      <c r="F228" s="30"/>
+      <c r="G228" s="30"/>
+      <c r="H228" s="30"/>
+      <c r="I228" s="30"/>
+      <c r="J228" s="30"/>
+      <c r="K228" s="30"/>
+      <c r="L228" s="30"/>
+    </row>
+    <row r="229" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="30"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="30"/>
+      <c r="I229" s="30"/>
+      <c r="J229" s="30"/>
+      <c r="K229" s="30"/>
+      <c r="L229" s="30"/>
+    </row>
+    <row r="230" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30"/>
+      <c r="F230" s="30"/>
+      <c r="G230" s="30"/>
+      <c r="H230" s="30"/>
+      <c r="I230" s="30"/>
+      <c r="J230" s="30"/>
+      <c r="K230" s="30"/>
+      <c r="L230" s="30"/>
+    </row>
+    <row r="231" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
+      <c r="F231" s="30"/>
+      <c r="G231" s="30"/>
+      <c r="H231" s="30"/>
+      <c r="I231" s="30"/>
+      <c r="J231" s="30"/>
+      <c r="K231" s="30"/>
+      <c r="L231" s="30"/>
+    </row>
+    <row r="232" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="30"/>
+      <c r="H232" s="30"/>
+      <c r="I232" s="30"/>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
+      <c r="L232" s="30"/>
+    </row>
+    <row r="233" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="30"/>
+      <c r="C233" s="30"/>
+      <c r="D233" s="30"/>
+      <c r="E233" s="30"/>
+      <c r="F233" s="30"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="30"/>
+      <c r="I233" s="30"/>
+      <c r="J233" s="30"/>
+      <c r="K233" s="30"/>
+      <c r="L233" s="30"/>
+    </row>
+    <row r="234" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="30"/>
+      <c r="C234" s="30"/>
+      <c r="D234" s="30"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="30"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30"/>
+      <c r="I234" s="30"/>
+      <c r="J234" s="30"/>
+      <c r="K234" s="30"/>
+      <c r="L234" s="30"/>
+    </row>
+    <row r="235" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30"/>
+      <c r="I235" s="30"/>
+      <c r="J235" s="30"/>
+      <c r="K235" s="30"/>
+      <c r="L235" s="30"/>
+    </row>
+    <row r="236" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30"/>
+      <c r="I236" s="30"/>
+      <c r="J236" s="30"/>
+      <c r="K236" s="30"/>
+      <c r="L236" s="30"/>
+    </row>
+    <row r="237" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
+      <c r="D237" s="30"/>
+      <c r="E237" s="30"/>
+      <c r="F237" s="30"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="30"/>
+      <c r="I237" s="30"/>
+      <c r="J237" s="30"/>
+      <c r="K237" s="30"/>
+      <c r="L237" s="30"/>
+    </row>
+    <row r="238" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="30"/>
+      <c r="C238" s="30"/>
+      <c r="D238" s="30"/>
+      <c r="E238" s="30"/>
+      <c r="F238" s="30"/>
+      <c r="G238" s="30"/>
+      <c r="H238" s="30"/>
+      <c r="I238" s="30"/>
+      <c r="J238" s="30"/>
+      <c r="K238" s="30"/>
+      <c r="L238" s="30"/>
+    </row>
+    <row r="239" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
+      <c r="D239" s="30"/>
+      <c r="E239" s="30"/>
+      <c r="F239" s="30"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="30"/>
+      <c r="J239" s="30"/>
+      <c r="K239" s="30"/>
+      <c r="L239" s="30"/>
+    </row>
+    <row r="240" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="30"/>
+      <c r="C240" s="30"/>
+      <c r="D240" s="30"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="30"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30"/>
+      <c r="I240" s="30"/>
+      <c r="J240" s="30"/>
+      <c r="K240" s="30"/>
+      <c r="L240" s="30"/>
+    </row>
+    <row r="241" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
+      <c r="D241" s="30"/>
+      <c r="E241" s="30"/>
+      <c r="F241" s="30"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="30"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="30"/>
+    </row>
+    <row r="242" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="30"/>
+      <c r="C242" s="30"/>
+      <c r="D242" s="30"/>
+      <c r="E242" s="30"/>
+      <c r="F242" s="30"/>
+      <c r="G242" s="30"/>
+      <c r="H242" s="30"/>
+      <c r="I242" s="30"/>
+      <c r="J242" s="30"/>
+      <c r="K242" s="30"/>
+      <c r="L242" s="30"/>
+    </row>
+    <row r="243" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="30"/>
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+      <c r="E243" s="30"/>
+      <c r="F243" s="30"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30"/>
+      <c r="K243" s="30"/>
+      <c r="L243" s="30"/>
+    </row>
+    <row r="244" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+      <c r="E244" s="30"/>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+    </row>
+    <row r="245" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+      <c r="E245" s="30"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="30"/>
+    </row>
+    <row r="246" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="30"/>
+      <c r="C246" s="30"/>
+      <c r="D246" s="30"/>
+      <c r="E246" s="30"/>
+      <c r="F246" s="30"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="30"/>
+      <c r="L246" s="30"/>
+    </row>
+    <row r="247" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+    </row>
+    <row r="248" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="30"/>
+      <c r="F248" s="30"/>
+      <c r="G248" s="30"/>
+      <c r="H248" s="30"/>
+      <c r="I248" s="30"/>
+      <c r="J248" s="30"/>
+      <c r="K248" s="30"/>
+      <c r="L248" s="30"/>
+    </row>
+    <row r="249" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="30"/>
+      <c r="F249" s="30"/>
+      <c r="G249" s="30"/>
+      <c r="H249" s="30"/>
+      <c r="I249" s="30"/>
+      <c r="J249" s="30"/>
+      <c r="K249" s="30"/>
+      <c r="L249" s="30"/>
+    </row>
+    <row r="250" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+      <c r="E250" s="30"/>
+      <c r="F250" s="30"/>
+      <c r="G250" s="30"/>
+      <c r="H250" s="30"/>
+      <c r="I250" s="30"/>
+      <c r="J250" s="30"/>
+      <c r="K250" s="30"/>
+      <c r="L250" s="30"/>
+    </row>
+    <row r="251" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="30"/>
+      <c r="E251" s="30"/>
+      <c r="F251" s="30"/>
+      <c r="G251" s="30"/>
+      <c r="H251" s="30"/>
+      <c r="I251" s="30"/>
+      <c r="J251" s="30"/>
+      <c r="K251" s="30"/>
+      <c r="L251" s="30"/>
+    </row>
+    <row r="252" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
+      <c r="D252" s="30"/>
+      <c r="E252" s="30"/>
+      <c r="F252" s="30"/>
+      <c r="G252" s="30"/>
+      <c r="H252" s="30"/>
+      <c r="I252" s="30"/>
+      <c r="J252" s="30"/>
+      <c r="K252" s="30"/>
+      <c r="L252" s="30"/>
+    </row>
+    <row r="253" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="30"/>
+      <c r="E253" s="30"/>
+      <c r="F253" s="30"/>
+      <c r="G253" s="30"/>
+      <c r="H253" s="30"/>
+      <c r="I253" s="30"/>
+      <c r="J253" s="30"/>
+      <c r="K253" s="30"/>
+      <c r="L253" s="30"/>
+    </row>
+    <row r="254" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
+      <c r="D254" s="30"/>
+      <c r="E254" s="30"/>
+      <c r="F254" s="30"/>
+      <c r="G254" s="30"/>
+      <c r="H254" s="30"/>
+      <c r="I254" s="30"/>
+      <c r="J254" s="30"/>
+      <c r="K254" s="30"/>
+      <c r="L254" s="30"/>
+    </row>
+    <row r="255" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="30"/>
+      <c r="C255" s="30"/>
+      <c r="D255" s="30"/>
+      <c r="E255" s="30"/>
+      <c r="F255" s="30"/>
+      <c r="G255" s="30"/>
+      <c r="H255" s="30"/>
+      <c r="I255" s="30"/>
+      <c r="J255" s="30"/>
+      <c r="K255" s="30"/>
+      <c r="L255" s="30"/>
+    </row>
+    <row r="256" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="30"/>
+      <c r="C256" s="30"/>
+      <c r="D256" s="30"/>
+      <c r="E256" s="30"/>
+      <c r="F256" s="30"/>
+      <c r="G256" s="30"/>
+      <c r="H256" s="30"/>
+      <c r="I256" s="30"/>
+      <c r="J256" s="30"/>
+      <c r="K256" s="30"/>
+      <c r="L256" s="30"/>
+    </row>
+    <row r="257" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
+      <c r="E257" s="30"/>
+      <c r="F257" s="30"/>
+      <c r="G257" s="30"/>
+      <c r="H257" s="30"/>
+      <c r="I257" s="30"/>
+      <c r="J257" s="30"/>
+      <c r="K257" s="30"/>
+      <c r="L257" s="30"/>
+    </row>
+    <row r="258" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="30"/>
+      <c r="E258" s="30"/>
+      <c r="F258" s="30"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="30"/>
+      <c r="I258" s="30"/>
+      <c r="J258" s="30"/>
+      <c r="K258" s="30"/>
+      <c r="L258" s="30"/>
+    </row>
+    <row r="259" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
+      <c r="F259" s="30"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="30"/>
+      <c r="J259" s="30"/>
+      <c r="K259" s="30"/>
+      <c r="L259" s="30"/>
+    </row>
+    <row r="260" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
+      <c r="F260" s="30"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+    </row>
+    <row r="261" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
+      <c r="F261" s="30"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+      <c r="J261" s="30"/>
+      <c r="K261" s="30"/>
+      <c r="L261" s="30"/>
+    </row>
+    <row r="262" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30"/>
+      <c r="F262" s="30"/>
+      <c r="G262" s="30"/>
+      <c r="H262" s="30"/>
+      <c r="I262" s="30"/>
+      <c r="J262" s="30"/>
+      <c r="K262" s="30"/>
+      <c r="L262" s="30"/>
+    </row>
+    <row r="263" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30"/>
+      <c r="F263" s="30"/>
+      <c r="G263" s="30"/>
+      <c r="H263" s="30"/>
+      <c r="I263" s="30"/>
+      <c r="J263" s="30"/>
+      <c r="K263" s="30"/>
+      <c r="L263" s="30"/>
+    </row>
+    <row r="264" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
+      <c r="F264" s="30"/>
+      <c r="G264" s="30"/>
+      <c r="H264" s="30"/>
+      <c r="I264" s="30"/>
+      <c r="J264" s="30"/>
+      <c r="K264" s="30"/>
+      <c r="L264" s="30"/>
+    </row>
+    <row r="265" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
+      <c r="F265" s="30"/>
+      <c r="G265" s="30"/>
+      <c r="H265" s="30"/>
+      <c r="I265" s="30"/>
+      <c r="J265" s="30"/>
+      <c r="K265" s="30"/>
+      <c r="L265" s="30"/>
+    </row>
+    <row r="266" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
+      <c r="F266" s="30"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="30"/>
+      <c r="I266" s="30"/>
+      <c r="J266" s="30"/>
+      <c r="K266" s="30"/>
+      <c r="L266" s="30"/>
+    </row>
+    <row r="267" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
+      <c r="F267" s="30"/>
+      <c r="G267" s="30"/>
+      <c r="H267" s="30"/>
+      <c r="I267" s="30"/>
+      <c r="J267" s="30"/>
+      <c r="K267" s="30"/>
+      <c r="L267" s="30"/>
+    </row>
+    <row r="268" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
+      <c r="D268" s="30"/>
+      <c r="E268" s="30"/>
+      <c r="F268" s="30"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="30"/>
+      <c r="I268" s="30"/>
+      <c r="J268" s="30"/>
+      <c r="K268" s="30"/>
+      <c r="L268" s="30"/>
+    </row>
+    <row r="269" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
+      <c r="E269" s="30"/>
+      <c r="F269" s="30"/>
+      <c r="G269" s="30"/>
+      <c r="H269" s="30"/>
+      <c r="I269" s="30"/>
+      <c r="J269" s="30"/>
+      <c r="K269" s="30"/>
+      <c r="L269" s="30"/>
+    </row>
+    <row r="270" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
+      <c r="D270" s="30"/>
+      <c r="E270" s="30"/>
+      <c r="F270" s="30"/>
+      <c r="G270" s="30"/>
+      <c r="H270" s="30"/>
+      <c r="I270" s="30"/>
+      <c r="J270" s="30"/>
+      <c r="K270" s="30"/>
+      <c r="L270" s="30"/>
+    </row>
+    <row r="271" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
+      <c r="D271" s="30"/>
+      <c r="E271" s="30"/>
+      <c r="F271" s="30"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="30"/>
+      <c r="I271" s="30"/>
+      <c r="J271" s="30"/>
+      <c r="K271" s="30"/>
+      <c r="L271" s="30"/>
+    </row>
+    <row r="272" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
+      <c r="D272" s="30"/>
+      <c r="E272" s="30"/>
+      <c r="F272" s="30"/>
+      <c r="G272" s="30"/>
+      <c r="H272" s="30"/>
+      <c r="I272" s="30"/>
+      <c r="J272" s="30"/>
+      <c r="K272" s="30"/>
+      <c r="L272" s="30"/>
+    </row>
+    <row r="273" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30"/>
+      <c r="F273" s="30"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="30"/>
+      <c r="I273" s="30"/>
+      <c r="J273" s="30"/>
+      <c r="K273" s="30"/>
+      <c r="L273" s="30"/>
+    </row>
+    <row r="274" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
+      <c r="D274" s="30"/>
+      <c r="E274" s="30"/>
+      <c r="F274" s="30"/>
+      <c r="G274" s="30"/>
+      <c r="H274" s="30"/>
+      <c r="I274" s="30"/>
+      <c r="J274" s="30"/>
+      <c r="K274" s="30"/>
+      <c r="L274" s="30"/>
+    </row>
+    <row r="275" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
+      <c r="L275" s="30"/>
+    </row>
+    <row r="276" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
+      <c r="F276" s="30"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="30"/>
+      <c r="I276" s="30"/>
+      <c r="J276" s="30"/>
+      <c r="K276" s="30"/>
+      <c r="L276" s="30"/>
+    </row>
+    <row r="277" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+      <c r="E277" s="30"/>
+      <c r="F277" s="30"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="30"/>
+      <c r="I277" s="30"/>
+      <c r="J277" s="30"/>
+      <c r="K277" s="30"/>
+      <c r="L277" s="30"/>
+    </row>
+    <row r="278" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+      <c r="E278" s="30"/>
+      <c r="F278" s="30"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="30"/>
+      <c r="I278" s="30"/>
+      <c r="J278" s="30"/>
+      <c r="K278" s="30"/>
+      <c r="L278" s="30"/>
+    </row>
+    <row r="279" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="30"/>
+      <c r="K279" s="30"/>
+      <c r="L279" s="30"/>
+    </row>
+    <row r="280" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
+      <c r="E280" s="30"/>
+      <c r="F280" s="30"/>
+      <c r="G280" s="30"/>
+      <c r="H280" s="30"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="30"/>
+      <c r="K280" s="30"/>
+      <c r="L280" s="30"/>
+    </row>
+    <row r="281" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
+      <c r="E281" s="30"/>
+      <c r="F281" s="30"/>
+      <c r="G281" s="30"/>
+      <c r="H281" s="30"/>
+      <c r="I281" s="30"/>
+      <c r="J281" s="30"/>
+      <c r="K281" s="30"/>
+      <c r="L281" s="30"/>
+    </row>
+    <row r="282" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="30"/>
+      <c r="I282" s="30"/>
+      <c r="J282" s="30"/>
+      <c r="K282" s="30"/>
+      <c r="L282" s="30"/>
+    </row>
+    <row r="283" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="30"/>
+      <c r="I283" s="30"/>
+      <c r="J283" s="30"/>
+      <c r="K283" s="30"/>
+      <c r="L283" s="30"/>
+    </row>
+    <row r="284" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
+      <c r="E284" s="30"/>
+      <c r="F284" s="30"/>
+      <c r="G284" s="30"/>
+      <c r="H284" s="30"/>
+      <c r="I284" s="30"/>
+      <c r="J284" s="30"/>
+      <c r="K284" s="30"/>
+      <c r="L284" s="30"/>
+    </row>
+    <row r="285" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
+      <c r="F285" s="30"/>
+      <c r="G285" s="30"/>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30"/>
+      <c r="J285" s="30"/>
+      <c r="K285" s="30"/>
+      <c r="L285" s="30"/>
+    </row>
+    <row r="286" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="30"/>
+      <c r="F286" s="30"/>
+      <c r="G286" s="30"/>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
+      <c r="J286" s="30"/>
+      <c r="K286" s="30"/>
+      <c r="L286" s="30"/>
+    </row>
+    <row r="287" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
+      <c r="J287" s="30"/>
+      <c r="K287" s="30"/>
+      <c r="L287" s="30"/>
+    </row>
+    <row r="288" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
+      <c r="J288" s="30"/>
+      <c r="K288" s="30"/>
+      <c r="L288" s="30"/>
+    </row>
+    <row r="289" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="30"/>
+      <c r="I289" s="30"/>
+      <c r="J289" s="30"/>
+      <c r="K289" s="30"/>
+      <c r="L289" s="30"/>
+    </row>
+    <row r="290" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
+      <c r="F290" s="30"/>
+      <c r="G290" s="30"/>
+      <c r="H290" s="30"/>
+      <c r="I290" s="30"/>
+      <c r="J290" s="30"/>
+      <c r="K290" s="30"/>
+      <c r="L290" s="30"/>
+    </row>
+    <row r="291" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
+      <c r="F291" s="30"/>
+      <c r="G291" s="30"/>
+      <c r="H291" s="30"/>
+      <c r="I291" s="30"/>
+      <c r="J291" s="30"/>
+      <c r="K291" s="30"/>
+      <c r="L291" s="30"/>
+    </row>
+    <row r="292" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
+      <c r="D292" s="30"/>
+      <c r="E292" s="30"/>
+      <c r="F292" s="30"/>
+      <c r="G292" s="30"/>
+      <c r="H292" s="30"/>
+      <c r="I292" s="30"/>
+      <c r="J292" s="30"/>
+      <c r="K292" s="30"/>
+      <c r="L292" s="30"/>
+    </row>
+    <row r="293" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="30"/>
+      <c r="F293" s="30"/>
+      <c r="G293" s="30"/>
+      <c r="H293" s="30"/>
+      <c r="I293" s="30"/>
+      <c r="J293" s="30"/>
+      <c r="K293" s="30"/>
+      <c r="L293" s="30"/>
+    </row>
+    <row r="294" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
+      <c r="D294" s="30"/>
+      <c r="E294" s="30"/>
+      <c r="F294" s="30"/>
+      <c r="G294" s="30"/>
+      <c r="H294" s="30"/>
+      <c r="I294" s="30"/>
+      <c r="J294" s="30"/>
+      <c r="K294" s="30"/>
+      <c r="L294" s="30"/>
+    </row>
+    <row r="295" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
+      <c r="D295" s="30"/>
+      <c r="E295" s="30"/>
+      <c r="F295" s="30"/>
+      <c r="G295" s="30"/>
+      <c r="H295" s="30"/>
+      <c r="I295" s="30"/>
+      <c r="J295" s="30"/>
+      <c r="K295" s="30"/>
+      <c r="L295" s="30"/>
+    </row>
+    <row r="296" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="30"/>
+      <c r="G296" s="30"/>
+      <c r="H296" s="30"/>
+      <c r="I296" s="30"/>
+      <c r="J296" s="30"/>
+      <c r="K296" s="30"/>
+      <c r="L296" s="30"/>
+    </row>
+    <row r="297" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+      <c r="E297" s="30"/>
+      <c r="F297" s="30"/>
+      <c r="G297" s="30"/>
+      <c r="H297" s="30"/>
+      <c r="I297" s="30"/>
+      <c r="J297" s="30"/>
+      <c r="K297" s="30"/>
+      <c r="L297" s="30"/>
+    </row>
+    <row r="298" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+      <c r="E298" s="30"/>
+      <c r="F298" s="30"/>
+      <c r="G298" s="30"/>
+      <c r="H298" s="30"/>
+      <c r="I298" s="30"/>
+      <c r="J298" s="30"/>
+      <c r="K298" s="30"/>
+      <c r="L298" s="30"/>
+    </row>
+    <row r="299" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
+      <c r="F299" s="30"/>
+      <c r="G299" s="30"/>
+      <c r="H299" s="30"/>
+      <c r="I299" s="30"/>
+      <c r="J299" s="30"/>
+      <c r="K299" s="30"/>
+      <c r="L299" s="30"/>
+    </row>
+    <row r="300" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="30"/>
+      <c r="D300" s="30"/>
+      <c r="G300" s="30"/>
+    </row>
+    <row r="301" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="30"/>
+      <c r="D301" s="30"/>
+      <c r="G301" s="30"/>
+    </row>
+    <row r="302" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="30"/>
+      <c r="D302" s="30"/>
+      <c r="G302" s="30"/>
+    </row>
+    <row r="303" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+      <c r="G303" s="30"/>
+    </row>
+    <row r="304" spans="2:12" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D304" s="30"/>
+      <c r="G304" s="30"/>
+    </row>
+    <row r="305" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D305" s="30"/>
+      <c r="G305" s="30"/>
+    </row>
+    <row r="306" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D306" s="30"/>
+      <c r="G306" s="30"/>
+    </row>
+    <row r="307" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D307" s="30"/>
+      <c r="G307" s="30"/>
+    </row>
+    <row r="308" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G308" s="30"/>
+    </row>
+    <row r="309" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G309" s="30"/>
+    </row>
+    <row r="310" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G310" s="30"/>
+    </row>
+    <row r="311" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G311" s="30"/>
+    </row>
+    <row r="312" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G312" s="30"/>
+    </row>
+    <row r="313" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G313" s="30"/>
+    </row>
+    <row r="314" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G314" s="30"/>
+    </row>
+    <row r="315" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="30"/>
+    </row>
+    <row r="316" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="30"/>
+    </row>
+    <row r="317" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="30"/>
+    </row>
+    <row r="318" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G318" s="30"/>
+    </row>
+    <row r="319" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G319" s="30"/>
+    </row>
+    <row r="320" spans="4:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="30"/>
+    </row>
+    <row r="321" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="30"/>
+    </row>
+    <row r="322" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G322" s="30"/>
+    </row>
+    <row r="323" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="30"/>
+    </row>
+    <row r="324" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="30"/>
+    </row>
+    <row r="325" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="30"/>
+    </row>
+    <row r="326" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="30"/>
+    </row>
+    <row r="327" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="30"/>
+    </row>
+    <row r="328" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="30"/>
+    </row>
+    <row r="329" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G329" s="30"/>
+    </row>
+    <row r="330" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G330" s="30"/>
+    </row>
+    <row r="331" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G331" s="30"/>
+    </row>
+    <row r="332" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G332" s="30"/>
+    </row>
+    <row r="333" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="30"/>
+    </row>
+    <row r="334" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="30"/>
+    </row>
+    <row r="335" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="30"/>
+    </row>
+    <row r="336" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="30"/>
+    </row>
+    <row r="337" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="30"/>
+    </row>
+    <row r="338" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="30"/>
+    </row>
+    <row r="339" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="30"/>
+    </row>
+    <row r="340" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="30"/>
+    </row>
+    <row r="341" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G341" s="30"/>
+    </row>
+    <row r="342" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G342" s="30"/>
+    </row>
+    <row r="343" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G343" s="30"/>
+    </row>
+    <row r="344" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="30"/>
+    </row>
+    <row r="345" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G345" s="30"/>
+    </row>
+    <row r="346" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G346" s="30"/>
+    </row>
+    <row r="347" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G347" s="30"/>
+    </row>
+    <row r="348" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G348" s="30"/>
+    </row>
+    <row r="349" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="30"/>
+    </row>
+    <row r="350" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="30"/>
+    </row>
+    <row r="351" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="30"/>
+    </row>
+    <row r="352" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="30"/>
+    </row>
+    <row r="353" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G353" s="30"/>
+    </row>
+    <row r="354" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="30"/>
+    </row>
+    <row r="355" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="30"/>
+    </row>
+    <row r="356" spans="7:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G356" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
+  <mergeCells count="13">
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J28:K28"/>
@@ -4921,16 +8488,20 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G36" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
-      <formula1>VARIABLES</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C36" xr:uid="{7419D0B0-27D5-40C0-A621-28CE3CD66759}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C303" xr:uid="{7419D0B0-27D5-40C0-A621-28CE3CD66759}">
       <formula1>URL</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D36" xr:uid="{3ACD009E-B85B-4896-BD3C-B3139BF300EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D307" xr:uid="{3ACD009E-B85B-4896-BD3C-B3139BF300EE}">
       <formula1>Triggers</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G356" xr:uid="{279A0098-FA03-4832-BB44-9FAB6659F105}">
+      <formula1>VARIABLES</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4942,13 +8513,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E1451-794D-4AAA-996A-CBECC3B02661}">
-  <dimension ref="A11:AMH310"/>
+  <dimension ref="A11:AMH44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -4966,32 +8537,31 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -4999,7 +8569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5007,7 +8577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +8585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5023,7 +8593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5031,77 +8601,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="26" t="s">
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="25"/>
+      <c r="I29" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5118,481 +8688,211 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="31"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="29"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="29"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="38"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="38"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="38"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="43"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="38"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="38"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="37"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B38"/>
     <mergeCell ref="B39:B43"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B29:B30"/>
@@ -5604,6 +8904,7 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B31:B38"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{7B368695-474D-4373-B4AA-85B1667124A2}">
@@ -5625,13 +8926,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704531C-E89D-482F-A691-8949287AF91E}">
-  <dimension ref="A11:AMH315"/>
+  <dimension ref="A11:AMH49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G48"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
@@ -5649,32 +8950,31 @@
     <col min="15" max="1022" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -5682,7 +8982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -5690,7 +8990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -5698,7 +8998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -5706,7 +9006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
@@ -5714,77 +9014,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="26" t="s">
+    <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5801,572 +9101,295 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="35"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="35"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-    </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="35"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-    </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="35"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-    </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="35"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-    </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-    </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="35"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-    </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="35"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-    </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="35"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-    </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-    </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="35"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-    </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="35"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-    </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="35"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-    </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="35"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-    </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="35"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-    </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="35"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-    </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="35"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-    </row>
-    <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+    </row>
+    <row r="32" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="44"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+    </row>
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="44"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+    </row>
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="44"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+    </row>
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="44"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+    </row>
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="44"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+    </row>
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="44"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+    </row>
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="44"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+    </row>
+    <row r="44" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+    </row>
+    <row r="45" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="44"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+    </row>
+    <row r="46" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="44"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+    </row>
+    <row r="47" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="44"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="2:14" s="7" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="44"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="6:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="12">
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="D31:D48"/>
-    <mergeCell ref="E31:E48"/>
-    <mergeCell ref="G31:G48"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L31:L48"/>
-    <mergeCell ref="M31:M48"/>
-    <mergeCell ref="N31:N48"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="I31:I48"/>
-    <mergeCell ref="J31:J48"/>
-    <mergeCell ref="K31:K48"/>
-    <mergeCell ref="H31:H48"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C48" xr:uid="{313610C3-1725-4BDE-B2FF-49FB559662B0}">

--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BD197-E9A7-4E19-9246-99340D203438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998C155-A09B-439E-810D-10FAE01119A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4511,7 +4511,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AMH356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>

--- a/resources/formats/TaggingRequest_2021.xlsx
+++ b/resources/formats/TaggingRequest_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryoma\TagBuilder\resources\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998C155-A09B-439E-810D-10FAE01119A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562A9C0-E361-4EA5-84CB-6B500DC4F7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
   <si>
     <t>Agencia</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>Taboola - Twitter - TikTok</t>
+  </si>
+  <si>
+    <t>GA4  ID</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -852,6 +855,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,7 +1660,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A18:AMJ136"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:G136"/>
     </sheetView>
   </sheetViews>
@@ -4511,8 +4523,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AMH356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4587,7 +4599,7 @@
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -4595,7 +4607,7 @@
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -4603,12 +4615,12 @@
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -4616,7 +4628,7 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -4624,7 +4636,7 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1"/>
@@ -4634,7 +4646,7 @@
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="46" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1"/>
@@ -4644,7 +4656,7 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="46" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1"/>
@@ -4654,7 +4666,7 @@
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1"/>
@@ -4664,7 +4676,7 @@
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1"/>
@@ -4674,7 +4686,7 @@
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -4682,20 +4694,23 @@
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="48"/>
       <c r="D24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -8515,8 +8530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E1451-794D-4AAA-996A-CBECC3B02661}">
   <dimension ref="A11:AMH44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="I16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8614,10 +8629,16 @@
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8928,8 +8949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704531C-E89D-482F-A691-8949287AF91E}">
   <dimension ref="A11:AMH49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9031,6 +9052,12 @@
         <v>16</v>
       </c>
       <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="2:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:14" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
